--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3131.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3131.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.03641885200653</v>
+        <v>1.543685793876648</v>
       </c>
       <c r="B1">
-        <v>1.354171248929823</v>
+        <v>1.666494488716125</v>
       </c>
       <c r="C1">
-        <v>2.096314531053854</v>
+        <v>1.865381121635437</v>
       </c>
       <c r="D1">
-        <v>4.957224238889671</v>
+        <v>2.887477397918701</v>
       </c>
       <c r="E1">
-        <v>3.207820845367536</v>
+        <v>3.854363441467285</v>
       </c>
     </row>
   </sheetData>
